--- a/nmadb/Fountoulakis2013DepressionCR.xlsx
+++ b/nmadb/Fountoulakis2013DepressionCR.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7080"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -27,9 +27,6 @@
     <t>sd</t>
   </si>
   <si>
-    <t>tt</t>
-  </si>
-  <si>
     <t>Placebo</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>Study</t>
-  </si>
-  <si>
-    <t>mean_change</t>
   </si>
   <si>
     <t>-</t>
@@ -249,12 +243,18 @@
   <si>
     <t>UK12</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,7 +421,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -495,7 +495,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -530,7 +529,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -706,14 +704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="16.28515625" style="11" bestFit="1" customWidth="1"/>
@@ -726,21 +724,21 @@
     <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -749,19 +747,19 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="4">
         <v>1985</v>
       </c>
@@ -784,10 +782,10 @@
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="C3" s="4">
         <v>1</v>
       </c>
@@ -804,13 +802,13 @@
         <v>22</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="11">
         <v>25</v>
@@ -834,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -857,10 +855,10 @@
         <v>2</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>1985</v>
       </c>
@@ -886,10 +884,10 @@
         <v>3</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="C7" s="4">
         <v>3</v>
       </c>
@@ -909,15 +907,15 @@
         <v>4</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>1990</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -938,10 +936,10 @@
         <v>5</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="C9" s="4">
         <v>4</v>
       </c>
@@ -958,12 +956,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>1990</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
         <v>5</v>
@@ -981,7 +979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="C11" s="4">
         <v>5</v>
       </c>
@@ -998,7 +996,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="4">
         <v>1998</v>
       </c>
@@ -1021,7 +1019,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="C13" s="4">
         <v>6</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="4">
         <v>1995</v>
       </c>
@@ -1061,7 +1059,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="C15" s="4">
         <v>7</v>
       </c>
@@ -1078,7 +1076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="4">
         <v>1994</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="C17" s="4">
         <v>8</v>
       </c>
@@ -1118,7 +1116,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="4">
         <v>1994</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="C19" s="4">
         <v>9</v>
       </c>
@@ -1158,9 +1156,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="11">
         <v>303</v>
@@ -1181,7 +1179,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="C21" s="4">
         <v>10</v>
       </c>
@@ -1198,7 +1196,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="4">
         <v>1993</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="C23" s="4">
         <v>11</v>
       </c>
@@ -1238,12 +1236,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4">
         <v>12</v>
@@ -1261,7 +1259,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="C25" s="4">
         <v>12</v>
       </c>
@@ -1278,12 +1276,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="4">
         <v>1990</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4">
         <v>13</v>
@@ -1301,7 +1299,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="C27" s="4">
         <v>13</v>
       </c>
@@ -1318,12 +1316,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="4">
         <v>1994</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="4">
         <v>14</v>
@@ -1341,7 +1339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="C29" s="4">
         <v>14</v>
       </c>
@@ -1358,12 +1356,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="4">
         <v>15</v>
@@ -1381,7 +1379,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="C31" s="4">
         <v>15</v>
       </c>
@@ -1398,12 +1396,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="4">
         <v>1995</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4">
         <v>16</v>
@@ -1421,7 +1419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="C33" s="4">
         <v>16</v>
       </c>
@@ -1438,12 +1436,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="4">
         <v>17</v>
@@ -1461,7 +1459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="C35" s="4">
         <v>17</v>
       </c>
@@ -1478,12 +1476,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="4">
         <v>1994</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4">
         <v>18</v>
@@ -1501,7 +1499,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="C37" s="4">
         <v>18</v>
       </c>
@@ -1518,12 +1516,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38" s="4">
         <v>19</v>
@@ -1541,7 +1539,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="C39" s="4">
         <v>19</v>
       </c>
@@ -1558,12 +1556,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C40" s="4">
         <v>20</v>
@@ -1581,7 +1579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="C41" s="4">
         <v>20</v>
       </c>
@@ -1598,12 +1596,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="4">
         <v>1989</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42" s="4">
         <v>21</v>
@@ -1621,7 +1619,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="C43" s="4">
         <v>21</v>
       </c>
@@ -1638,12 +1636,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="4">
         <v>1992</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C44" s="4">
         <v>22</v>
@@ -1661,7 +1659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="C45" s="4">
         <v>22</v>
       </c>
@@ -1678,12 +1676,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="4">
         <v>1992</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C46" s="4">
         <v>23</v>
@@ -1701,7 +1699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="C47" s="4">
         <v>23</v>
       </c>
@@ -1718,12 +1716,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="4">
         <v>1992</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C48" s="4">
         <v>24</v>
@@ -1741,7 +1739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="C49" s="4">
         <v>24</v>
       </c>
@@ -1758,12 +1756,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="4">
         <v>1989</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C50" s="4">
         <v>25</v>
@@ -1781,7 +1779,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="C51" s="4">
         <v>25</v>
       </c>
@@ -1798,12 +1796,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="4">
         <v>1990</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C52" s="4">
         <v>26</v>
@@ -1821,7 +1819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="C53" s="4">
         <v>26</v>
       </c>
@@ -1838,12 +1836,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
@@ -1861,7 +1859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="C55" s="4">
         <v>27</v>
       </c>
@@ -1878,12 +1876,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="4">
         <v>1992</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56" s="4">
         <v>28</v>
@@ -1901,7 +1899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="C57" s="4">
         <v>28</v>
       </c>
@@ -1918,12 +1916,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="4">
         <v>1989</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C58" s="4">
         <v>29</v>
@@ -1941,7 +1939,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="C59" s="4">
         <v>29</v>
       </c>
@@ -1958,12 +1956,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="4">
         <v>1992</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C60" s="4">
         <v>30</v>
@@ -1981,7 +1979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="C61" s="4">
         <v>30</v>
       </c>
@@ -1998,12 +1996,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C62" s="4">
         <v>31</v>
@@ -2021,7 +2019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="C63" s="4">
         <v>31</v>
       </c>
@@ -2038,12 +2036,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="4">
         <v>1992</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C64" s="4">
         <v>32</v>
@@ -2061,7 +2059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="C65" s="4">
         <v>32</v>
       </c>
@@ -2078,12 +2076,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="4">
         <v>1989</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C66" s="4">
         <v>33</v>
@@ -2101,7 +2099,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="C67" s="4">
         <v>33</v>
       </c>
@@ -2118,12 +2116,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C68" s="4">
         <v>34</v>
@@ -2141,7 +2139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="C69" s="4">
         <v>34</v>
       </c>
@@ -2158,12 +2156,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C70" s="4">
         <v>35</v>
@@ -2181,7 +2179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="C71" s="4">
         <v>35</v>
       </c>
@@ -2205,24 +2203,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
